--- a/VodovozReports/Reports/Orders/FastDeliverySalesReport.xlsx
+++ b/VodovozReports/Reports/Orders/FastDeliverySalesReport.xlsx
@@ -69,7 +69,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -79,7 +79,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.5"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="0"/>
@@ -89,7 +89,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -130,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -178,14 +178,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="0"/>
@@ -241,7 +234,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,10 +264,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,7 +366,7 @@
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="7" t="s">

--- a/VodovozReports/Reports/Orders/FastDeliverySalesReport.xlsx
+++ b/VodovozReports/Reports/Orders/FastDeliverySalesReport.xlsx
@@ -127,8 +127,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -234,7 +235,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,6 +265,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -302,7 +307,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="46.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="12" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1023" style="2" width="14.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="14.76"/>
@@ -387,10 +392,10 @@
       <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AMJ4" s="6"/>
